--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value148.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value148.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.001875029105071</v>
+        <v>0.4551307559013367</v>
       </c>
       <c r="B1">
-        <v>1.976446618487829</v>
+        <v>3.342988967895508</v>
       </c>
       <c r="C1">
-        <v>2.74239700834021</v>
+        <v>4.272516250610352</v>
       </c>
       <c r="D1">
-        <v>2.558986697883132</v>
+        <v>1.572198271751404</v>
       </c>
       <c r="E1">
-        <v>0.9416241067996137</v>
+        <v>1.195690512657166</v>
       </c>
     </row>
   </sheetData>
